--- a/80+0_3.xlsx
+++ b/80+0_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="C2" t="n">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="D2" t="n">
-        <v>2888</v>
+        <v>2794</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -485,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="C3" t="n">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="D3" t="n">
-        <v>2878</v>
+        <v>2818</v>
       </c>
       <c r="E3" t="n">
         <v>-1.776356839400251e-16</v>
@@ -505,13 +505,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>719</v>
+        <v>682</v>
       </c>
       <c r="C4" t="n">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="D4" t="n">
-        <v>2881</v>
+        <v>2817</v>
       </c>
       <c r="E4" t="n">
         <v>-1.776356839400251e-16</v>
@@ -525,13 +525,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>757</v>
+        <v>680</v>
       </c>
       <c r="C5" t="n">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="D5" t="n">
-        <v>2881</v>
+        <v>2811</v>
       </c>
       <c r="E5" t="n">
         <v>-1.776356839400251e-16</v>
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792</v>
+        <v>701</v>
       </c>
       <c r="C6" t="n">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="D6" t="n">
-        <v>2867</v>
+        <v>2807</v>
       </c>
       <c r="E6" t="n">
-        <v>6.710499498728111</v>
+        <v>-1.776356839400251e-16</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>804</v>
+        <v>714</v>
       </c>
       <c r="C7" t="n">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="D7" t="n">
-        <v>2828</v>
+        <v>2803</v>
       </c>
       <c r="E7" t="n">
-        <v>12.16908203183333</v>
+        <v>0.4819775595542307</v>
       </c>
       <c r="F7" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>803</v>
+        <v>733</v>
       </c>
       <c r="C8" t="n">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="D8" t="n">
-        <v>2780</v>
+        <v>2812</v>
       </c>
       <c r="E8" t="n">
-        <v>14.56429890562579</v>
+        <v>3.935294010533643</v>
       </c>
       <c r="F8" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -605,19 +605,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>804</v>
+        <v>751</v>
       </c>
       <c r="C9" t="n">
         <v>602</v>
       </c>
       <c r="D9" t="n">
-        <v>2684</v>
+        <v>2811</v>
       </c>
       <c r="E9" t="n">
-        <v>14.99999999999999</v>
+        <v>7.169818440548191</v>
       </c>
       <c r="F9" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +625,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795</v>
+        <v>764</v>
       </c>
       <c r="C10" t="n">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D10" t="n">
-        <v>2649</v>
+        <v>2792</v>
       </c>
       <c r="E10" t="n">
-        <v>14.99999999999999</v>
+        <v>9.721358861952169</v>
       </c>
       <c r="F10" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="C11" t="n">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="D11" t="n">
-        <v>2600</v>
+        <v>2777</v>
       </c>
       <c r="E11" t="n">
-        <v>14.99999999999999</v>
+        <v>12.38805148442951</v>
       </c>
       <c r="F11" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="C12" t="n">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="D12" t="n">
-        <v>2589</v>
+        <v>2766</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>13.71522976385241</v>
       </c>
       <c r="F12" t="n">
-        <v>13.99217709862036</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C13" t="n">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="D13" t="n">
-        <v>2554</v>
+        <v>2745</v>
       </c>
       <c r="E13" t="n">
-        <v>14.99999999999999</v>
+        <v>14.25036396524821</v>
       </c>
       <c r="F13" t="n">
-        <v>14.50928170587751</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C14" t="n">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="D14" t="n">
-        <v>2546</v>
+        <v>2716</v>
       </c>
       <c r="E14" t="n">
         <v>14.99999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>14.40734903756503</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="D15" t="n">
-        <v>2515</v>
+        <v>2698</v>
       </c>
       <c r="E15" t="n">
         <v>14.99999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>13.36918406607631</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="C16" t="n">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="D16" t="n">
-        <v>2501</v>
+        <v>2673</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>12.60258719163419</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="C17" t="n">
-        <v>544</v>
+        <v>574</v>
       </c>
       <c r="D17" t="n">
-        <v>2463</v>
+        <v>2649</v>
       </c>
       <c r="E17" t="n">
         <v>14.99999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>13.33435234151931</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="C18" t="n">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="D18" t="n">
-        <v>2438</v>
+        <v>2632</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>12.84003498607428</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -805,19 +805,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="C19" t="n">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="D19" t="n">
-        <v>2408</v>
+        <v>2612</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>12.86066777306224</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +825,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="C20" t="n">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="D20" t="n">
-        <v>2392</v>
+        <v>2598</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>12.33116028395004</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +845,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="C21" t="n">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="D21" t="n">
-        <v>2371</v>
+        <v>2566</v>
       </c>
       <c r="E21" t="n">
         <v>14.99999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>11.86893203883495</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -865,19 +865,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="C22" t="n">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="D22" t="n">
-        <v>2350</v>
+        <v>2542</v>
       </c>
       <c r="E22" t="n">
         <v>14.99999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>11.35848406987635</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -885,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>714</v>
+        <v>737</v>
       </c>
       <c r="C23" t="n">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="D23" t="n">
-        <v>2334</v>
+        <v>2522</v>
       </c>
       <c r="E23" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>10.42003534123101</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -905,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="C24" t="n">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="D24" t="n">
-        <v>2334</v>
+        <v>2509</v>
       </c>
       <c r="E24" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>10.89559323975135</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -925,19 +925,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>701</v>
+        <v>730</v>
       </c>
       <c r="C25" t="n">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="D25" t="n">
-        <v>2310</v>
+        <v>2468</v>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>11.13838641423305</v>
+        <v>14.47712262194722</v>
       </c>
     </row>
     <row r="26">
@@ -945,19 +945,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>696</v>
+        <v>723</v>
       </c>
       <c r="C26" t="n">
-        <v>488</v>
+        <v>526</v>
       </c>
       <c r="D26" t="n">
-        <v>2289</v>
+        <v>2433</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>10.66590166372043</v>
+        <v>14.21651867842156</v>
       </c>
     </row>
     <row r="27">
@@ -965,19 +965,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>689</v>
+        <v>719</v>
       </c>
       <c r="C27" t="n">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="D27" t="n">
-        <v>2278</v>
+        <v>2419</v>
       </c>
       <c r="E27" t="n">
-        <v>15.00000000000001</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>9.613995327835459</v>
+        <v>13.852093383944</v>
       </c>
     </row>
     <row r="28">
@@ -985,19 +985,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>681</v>
+        <v>714</v>
       </c>
       <c r="C28" t="n">
-        <v>476</v>
+        <v>514</v>
       </c>
       <c r="D28" t="n">
-        <v>2261</v>
+        <v>2408</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>9.191422968975697</v>
+        <v>13.89610657477597</v>
       </c>
     </row>
     <row r="29">
@@ -1005,19 +1005,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>677</v>
+        <v>708</v>
       </c>
       <c r="C29" t="n">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="D29" t="n">
-        <v>2233</v>
+        <v>2378</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>9.485293836444885</v>
+        <v>12.62168447382058</v>
       </c>
     </row>
     <row r="30">
@@ -1025,19 +1025,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>672</v>
+        <v>701</v>
       </c>
       <c r="C30" t="n">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="D30" t="n">
-        <v>2217</v>
+        <v>2386</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>8.701286285181936</v>
+        <v>12.05311652614421</v>
       </c>
     </row>
     <row r="31">
@@ -1045,19 +1045,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>665</v>
+        <v>696</v>
       </c>
       <c r="C31" t="n">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="D31" t="n">
-        <v>2187</v>
+        <v>2351</v>
       </c>
       <c r="E31" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>7.532298038649349</v>
+        <v>11.92312820415568</v>
       </c>
     </row>
     <row r="32">
@@ -1065,19 +1065,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="C32" t="n">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="D32" t="n">
-        <v>2183</v>
+        <v>2332</v>
       </c>
       <c r="E32" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>8.182301082120746</v>
+        <v>10.633051687153</v>
       </c>
     </row>
     <row r="33">
@@ -1085,19 +1085,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>653</v>
+        <v>685</v>
       </c>
       <c r="C33" t="n">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="D33" t="n">
-        <v>2139</v>
+        <v>2314</v>
       </c>
       <c r="E33" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>7.406344123109617</v>
+        <v>11.04951371611103</v>
       </c>
     </row>
     <row r="34">
@@ -1105,19 +1105,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>645</v>
+        <v>680</v>
       </c>
       <c r="C34" t="n">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="D34" t="n">
-        <v>2137</v>
+        <v>2281</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
       </c>
       <c r="F34" t="n">
-        <v>7.633027871460903</v>
+        <v>10.76307323199071</v>
       </c>
     </row>
     <row r="35">
@@ -1125,19 +1125,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>640</v>
+        <v>675</v>
       </c>
       <c r="C35" t="n">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="D35" t="n">
-        <v>2141</v>
+        <v>2260</v>
       </c>
       <c r="E35" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>7.940980471665593</v>
+        <v>9.94911328203465</v>
       </c>
     </row>
     <row r="36">
@@ -1145,19 +1145,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c r="C36" t="n">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="D36" t="n">
-        <v>2135</v>
+        <v>2256</v>
       </c>
       <c r="E36" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F36" t="n">
-        <v>6.379425429704004</v>
+        <v>9.378959095854318</v>
       </c>
     </row>
     <row r="37">
@@ -1165,19 +1165,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="C37" t="n">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="D37" t="n">
-        <v>2136</v>
+        <v>2229</v>
       </c>
       <c r="E37" t="n">
         <v>15</v>
       </c>
       <c r="F37" t="n">
-        <v>4.867308828341654</v>
+        <v>9.867377434336117</v>
       </c>
     </row>
     <row r="38">
@@ -1185,19 +1185,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>613</v>
+        <v>657</v>
       </c>
       <c r="C38" t="n">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="D38" t="n">
-        <v>2145</v>
+        <v>2213</v>
       </c>
       <c r="E38" t="n">
         <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>4.692381947671337</v>
+        <v>9.223283667611284</v>
       </c>
     </row>
     <row r="39">
@@ -1205,19 +1205,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>593</v>
+        <v>650</v>
       </c>
       <c r="C39" t="n">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="D39" t="n">
-        <v>2197</v>
+        <v>2183</v>
       </c>
       <c r="E39" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F39" t="n">
-        <v>6.443432382040893</v>
+        <v>9.046152330180366</v>
       </c>
     </row>
     <row r="40">
@@ -1225,19 +1225,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>580</v>
+        <v>647</v>
       </c>
       <c r="C40" t="n">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="D40" t="n">
-        <v>2204</v>
+        <v>2175</v>
       </c>
       <c r="E40" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F40" t="n">
-        <v>9.010570257173409</v>
+        <v>8.29173874119078</v>
       </c>
     </row>
     <row r="41">
@@ -1245,19 +1245,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="C41" t="n">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="D41" t="n">
-        <v>2205</v>
+        <v>2169</v>
       </c>
       <c r="E41" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>10.55210852563665</v>
+        <v>8.082495489886179</v>
       </c>
     </row>
     <row r="42">
@@ -1265,19 +1265,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>564</v>
+        <v>636</v>
       </c>
       <c r="C42" t="n">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>2201</v>
+        <v>2147</v>
       </c>
       <c r="E42" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>11.79884706971597</v>
+        <v>7.579434512254443</v>
       </c>
     </row>
     <row r="43">
@@ -1285,19 +1285,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>557</v>
+        <v>628</v>
       </c>
       <c r="C43" t="n">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="D43" t="n">
-        <v>2182</v>
+        <v>2139</v>
       </c>
       <c r="E43" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F43" t="n">
-        <v>13.57094639453546</v>
+        <v>6.679170334258711</v>
       </c>
     </row>
     <row r="44">
@@ -1305,19 +1305,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>551</v>
+        <v>623</v>
       </c>
       <c r="C44" t="n">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="D44" t="n">
-        <v>2172</v>
+        <v>2123</v>
       </c>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>13.75101873691723</v>
+        <v>6.373086248215627</v>
       </c>
     </row>
     <row r="45">
@@ -1325,19 +1325,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>546</v>
+        <v>619</v>
       </c>
       <c r="C45" t="n">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="D45" t="n">
-        <v>2161</v>
+        <v>2104</v>
       </c>
       <c r="E45" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>14.71023186297874</v>
+        <v>5.369835245040699</v>
       </c>
     </row>
     <row r="46">
@@ -1345,19 +1345,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>539</v>
+        <v>610</v>
       </c>
       <c r="C46" t="n">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="D46" t="n">
-        <v>2145</v>
+        <v>2086</v>
       </c>
       <c r="E46" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F46" t="n">
-        <v>13.99887771733913</v>
+        <v>4.731983380352047</v>
       </c>
     </row>
     <row r="47">
@@ -1365,19 +1365,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="C47" t="n">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="D47" t="n">
-        <v>2130</v>
+        <v>2119</v>
       </c>
       <c r="E47" t="n">
         <v>15</v>
       </c>
       <c r="F47" t="n">
-        <v>13.15190373554583</v>
+        <v>4.618517790324033</v>
       </c>
     </row>
     <row r="48">
@@ -1385,19 +1385,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>532</v>
+        <v>580</v>
       </c>
       <c r="C48" t="n">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="D48" t="n">
-        <v>2111</v>
+        <v>2128</v>
       </c>
       <c r="E48" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F48" t="n">
-        <v>12.53765306453559</v>
+        <v>5.871897869873601</v>
       </c>
     </row>
     <row r="49">
@@ -1405,19 +1405,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>527</v>
+        <v>568</v>
       </c>
       <c r="C49" t="n">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="D49" t="n">
-        <v>2098</v>
+        <v>2135</v>
       </c>
       <c r="E49" t="n">
         <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>11.95308652896</v>
+        <v>10.85891964366348</v>
       </c>
     </row>
     <row r="50">
@@ -1425,19 +1425,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="C50" t="n">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="D50" t="n">
-        <v>2075</v>
+        <v>2141</v>
       </c>
       <c r="E50" t="n">
         <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>12.26433353822815</v>
+        <v>11.58789188380378</v>
       </c>
     </row>
     <row r="51">
@@ -1445,19 +1445,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>516</v>
+        <v>554</v>
       </c>
       <c r="C51" t="n">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="D51" t="n">
-        <v>2064</v>
+        <v>2127</v>
       </c>
       <c r="E51" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>11.34335827981692</v>
+        <v>12.63266189234363</v>
       </c>
     </row>
     <row r="52">
@@ -1465,19 +1465,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="C52" t="n">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="D52" t="n">
-        <v>2047</v>
+        <v>2117</v>
       </c>
       <c r="E52" t="n">
         <v>15</v>
       </c>
       <c r="F52" t="n">
-        <v>12.13100160372523</v>
+        <v>12.21210647615889</v>
       </c>
     </row>
     <row r="53">
@@ -1485,19 +1485,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="C53" t="n">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="D53" t="n">
-        <v>2024</v>
+        <v>2102</v>
       </c>
       <c r="E53" t="n">
         <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>10.71883420290708</v>
+        <v>10.86709256490633</v>
       </c>
     </row>
     <row r="54">
@@ -1505,19 +1505,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="C54" t="n">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="D54" t="n">
-        <v>2014</v>
+        <v>2088</v>
       </c>
       <c r="E54" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>10.67307252859697</v>
+        <v>11.60385231517625</v>
       </c>
     </row>
     <row r="55">
@@ -1525,19 +1525,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="C55" t="n">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="D55" t="n">
-        <v>1997</v>
+        <v>2078</v>
       </c>
       <c r="E55" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>9.535897750340181</v>
+        <v>12.17314696550627</v>
       </c>
     </row>
     <row r="56">
@@ -1545,19 +1545,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="C56" t="n">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="D56" t="n">
-        <v>1986</v>
+        <v>2066</v>
       </c>
       <c r="E56" t="n">
         <v>15</v>
       </c>
       <c r="F56" t="n">
-        <v>9.191422968975697</v>
+        <v>10.69720147165049</v>
       </c>
     </row>
     <row r="57">
@@ -1565,19 +1565,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C57" t="n">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="D57" t="n">
-        <v>1968</v>
+        <v>2050</v>
       </c>
       <c r="E57" t="n">
         <v>15.00000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>7.372454448520767</v>
+        <v>10.9968739018691</v>
       </c>
     </row>
     <row r="58">
@@ -1585,19 +1585,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="C58" t="n">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="D58" t="n">
-        <v>1955</v>
+        <v>2045</v>
       </c>
       <c r="E58" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F58" t="n">
-        <v>8.561618406160218</v>
+        <v>10.71883420290708</v>
       </c>
     </row>
     <row r="59">
@@ -1605,19 +1605,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="C59" t="n">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="D59" t="n">
-        <v>1934</v>
+        <v>2026</v>
       </c>
       <c r="E59" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>7.690854699454641</v>
+        <v>11.4635882905653</v>
       </c>
     </row>
     <row r="60">
@@ -1625,19 +1625,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="C60" t="n">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="D60" t="n">
-        <v>1927</v>
+        <v>2011</v>
       </c>
       <c r="E60" t="n">
         <v>15</v>
       </c>
       <c r="F60" t="n">
-        <v>6.679170334258711</v>
+        <v>11.42514684011897</v>
       </c>
     </row>
     <row r="61">
@@ -1645,19 +1645,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="C61" t="n">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="D61" t="n">
-        <v>1913</v>
+        <v>2004</v>
       </c>
       <c r="E61" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>7.61827268642522</v>
+        <v>11.59079926991091</v>
       </c>
     </row>
     <row r="62">
@@ -1665,19 +1665,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="C62" t="n">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="D62" t="n">
-        <v>1896</v>
+        <v>1990</v>
       </c>
       <c r="E62" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F62" t="n">
-        <v>5.008525815672978</v>
+        <v>10.6124065777162</v>
       </c>
     </row>
     <row r="63">
@@ -1685,19 +1685,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="C63" t="n">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="D63" t="n">
-        <v>1883</v>
+        <v>1975</v>
       </c>
       <c r="E63" t="n">
         <v>15</v>
       </c>
       <c r="F63" t="n">
-        <v>7.10508289961995</v>
+        <v>9.81304424169684</v>
       </c>
     </row>
     <row r="64">
@@ -1705,19 +1705,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="C64" t="n">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="D64" t="n">
-        <v>1868</v>
+        <v>1951</v>
       </c>
       <c r="E64" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>8.304701453077868</v>
+        <v>8.96762911720754</v>
       </c>
     </row>
     <row r="65">
@@ -1725,19 +1725,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="C65" t="n">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="D65" t="n">
-        <v>1850</v>
+        <v>1943</v>
       </c>
       <c r="E65" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>7.665467658697612</v>
+        <v>10.75457974636002</v>
       </c>
     </row>
     <row r="66">
@@ -1745,19 +1745,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="C66" t="n">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="D66" t="n">
-        <v>1835</v>
+        <v>1923</v>
       </c>
       <c r="E66" t="n">
         <v>15</v>
       </c>
       <c r="F66" t="n">
-        <v>4.806671040392652</v>
+        <v>9.329429269037083</v>
       </c>
     </row>
     <row r="67">
@@ -1765,19 +1765,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="C67" t="n">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="D67" t="n">
-        <v>1827</v>
+        <v>1911</v>
       </c>
       <c r="E67" t="n">
         <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>6.679170334258711</v>
+        <v>9.378959095854318</v>
       </c>
     </row>
     <row r="68">
@@ -1785,19 +1785,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="C68" t="n">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="D68" t="n">
-        <v>1828</v>
+        <v>1894</v>
       </c>
       <c r="E68" t="n">
         <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>7.243569177769068</v>
+        <v>10.20645964127464</v>
       </c>
     </row>
     <row r="69">
@@ -1805,19 +1805,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="C69" t="n">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="D69" t="n">
-        <v>1810</v>
+        <v>1878</v>
       </c>
       <c r="E69" t="n">
         <v>15</v>
       </c>
       <c r="F69" t="n">
-        <v>9.191422968975697</v>
+        <v>9.335274097809622</v>
       </c>
     </row>
     <row r="70">
@@ -1825,19 +1825,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="C70" t="n">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="D70" t="n">
-        <v>1799</v>
+        <v>1862</v>
       </c>
       <c r="E70" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>13.49581725985338</v>
+        <v>8.406508783866498</v>
       </c>
     </row>
     <row r="71">
@@ -1845,19 +1845,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="C71" t="n">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="D71" t="n">
-        <v>1781</v>
+        <v>1841</v>
       </c>
       <c r="E71" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F71" t="n">
-        <v>11.7553206306438</v>
+        <v>9.069160406883775</v>
       </c>
     </row>
     <row r="72">
@@ -1865,19 +1865,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="C72" t="n">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="D72" t="n">
-        <v>1766</v>
+        <v>1828</v>
       </c>
       <c r="E72" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>12.06564343995269</v>
+        <v>8.354062857682251</v>
       </c>
     </row>
     <row r="73">
@@ -1885,19 +1885,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="C73" t="n">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D73" t="n">
-        <v>1748</v>
+        <v>1819</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.589019945943012e-17</v>
+        <v>15</v>
       </c>
       <c r="F73" t="n">
-        <v>-9.402484472049691</v>
+        <v>7.12705845432582</v>
       </c>
     </row>
     <row r="74">
@@ -1905,19 +1905,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="C74" t="n">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D74" t="n">
-        <v>1736</v>
+        <v>1801</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.224578939412501e-17</v>
+        <v>15</v>
       </c>
       <c r="F74" t="n">
-        <v>-9.423076923076923</v>
+        <v>7.474181342825382</v>
       </c>
     </row>
     <row r="75">
@@ -1925,19 +1925,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="C75" t="n">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D75" t="n">
-        <v>1728</v>
+        <v>1785</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>-9.362025316455689</v>
+        <v>5.649360220830462</v>
       </c>
     </row>
     <row r="76">
@@ -1945,19 +1945,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="C76" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D76" t="n">
-        <v>1733</v>
+        <v>1769</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.589019945943012e-17</v>
+        <v>15</v>
       </c>
       <c r="F76" t="n">
-        <v>-9.402484472049691</v>
+        <v>8.297885665145333</v>
       </c>
     </row>
     <row r="77">
@@ -1965,19 +1965,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="C77" t="n">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D77" t="n">
-        <v>1740</v>
+        <v>1754</v>
       </c>
       <c r="E77" t="n">
-        <v>1.390443798061063e-16</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>-9.342172523961658</v>
+        <v>8.662196848605683</v>
       </c>
     </row>
     <row r="78">
@@ -1985,19 +1985,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="C78" t="n">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D78" t="n">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="E78" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F78" t="n">
-        <v>14.99999999999999</v>
+        <v>8.924899187196109</v>
       </c>
     </row>
     <row r="79">
@@ -2005,19 +2005,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>343</v>
+        <v>411</v>
       </c>
       <c r="C79" t="n">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="D79" t="n">
-        <v>1755</v>
+        <v>1723</v>
       </c>
       <c r="E79" t="n">
-        <v>35.00000000000001</v>
+        <v>-7.589019945943012e-17</v>
       </c>
       <c r="F79" t="n">
-        <v>15.00000000000001</v>
+        <v>-9.402484472049691</v>
       </c>
     </row>
     <row r="80">
@@ -2025,19 +2025,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>339</v>
+        <v>408</v>
       </c>
       <c r="C80" t="n">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="D80" t="n">
-        <v>1756</v>
+        <v>1715</v>
       </c>
       <c r="E80" t="n">
-        <v>15</v>
+        <v>-8.587739980083204e-17</v>
       </c>
       <c r="F80" t="n">
-        <v>35</v>
+        <v>-9.284210526315787</v>
       </c>
     </row>
     <row r="81">
@@ -2045,19 +2045,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="C81" t="n">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="D81" t="n">
-        <v>1745</v>
+        <v>1714</v>
       </c>
       <c r="E81" t="n">
-        <v>14.99999999999999</v>
+        <v>-1.230664008969653e-16</v>
       </c>
       <c r="F81" t="n">
-        <v>35</v>
+        <v>-9.246979865771811</v>
       </c>
     </row>
     <row r="82">
@@ -2065,19 +2065,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="C82" t="n">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="D82" t="n">
-        <v>1722</v>
+        <v>1717</v>
       </c>
       <c r="E82" t="n">
-        <v>14.99999999999999</v>
+        <v>-8.587739980083204e-17</v>
       </c>
       <c r="F82" t="n">
-        <v>34.99999999999999</v>
+        <v>-9.284210526315787</v>
       </c>
     </row>
     <row r="83">
@@ -2085,19 +2085,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="C83" t="n">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D83" t="n">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="E83" t="n">
-        <v>15</v>
+        <v>-9.813692430170217e-17</v>
       </c>
       <c r="F83" t="n">
-        <v>34.99999999999999</v>
+        <v>-9.382131661442006</v>
       </c>
     </row>
     <row r="84">
@@ -2105,19 +2105,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C84" t="n">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D84" t="n">
-        <v>1685</v>
+        <v>1727</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>35.00000000000001</v>
+        <v>-9.362025316455689</v>
       </c>
     </row>
     <row r="85">
@@ -2125,19 +2125,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C85" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D85" t="n">
-        <v>1668</v>
+        <v>1738</v>
       </c>
       <c r="E85" t="n">
-        <v>14.99999999999999</v>
+        <v>34.99999999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>34.99999999999998</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="86">
@@ -2145,19 +2145,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C86" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D86" t="n">
-        <v>1646</v>
+        <v>1750</v>
       </c>
       <c r="E86" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>15</v>
+        <v>35.00000000000002</v>
       </c>
     </row>
     <row r="87">
@@ -2165,19 +2165,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="C87" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D87" t="n">
-        <v>1621</v>
+        <v>1747</v>
       </c>
       <c r="E87" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
@@ -2185,19 +2185,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="C88" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D88" t="n">
-        <v>1594</v>
+        <v>1734</v>
       </c>
       <c r="E88" t="n">
-        <v>34.99999999999998</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>14.99999999999999</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
@@ -2205,19 +2205,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="C89" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D89" t="n">
-        <v>1587</v>
+        <v>1715</v>
       </c>
       <c r="E89" t="n">
-        <v>34.99999999999998</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>14.99999999999999</v>
+        <v>35.00000000000001</v>
       </c>
     </row>
     <row r="90">
@@ -2225,19 +2225,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C90" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D90" t="n">
-        <v>1569</v>
+        <v>1695</v>
       </c>
       <c r="E90" t="n">
+        <v>15</v>
+      </c>
+      <c r="F90" t="n">
         <v>35.00000000000001</v>
-      </c>
-      <c r="F90" t="n">
-        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="91">
@@ -2245,19 +2245,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C91" t="n">
         <v>294</v>
       </c>
       <c r="D91" t="n">
-        <v>1551</v>
+        <v>1669</v>
       </c>
       <c r="E91" t="n">
-        <v>35.00000000000002</v>
+        <v>15</v>
       </c>
       <c r="F91" t="n">
-        <v>15.00000000000001</v>
+        <v>34.99999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -2265,19 +2265,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C92" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D92" t="n">
-        <v>1534</v>
+        <v>1652</v>
       </c>
       <c r="E92" t="n">
-        <v>35.00000000000001</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>15.00000000000001</v>
+        <v>34.99999999999998</v>
       </c>
     </row>
     <row r="93">
@@ -2285,19 +2285,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C93" t="n">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D93" t="n">
-        <v>1514</v>
+        <v>1633</v>
       </c>
       <c r="E93" t="n">
-        <v>35.00000000000002</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>15.00000000000001</v>
+        <v>35.00000000000001</v>
       </c>
     </row>
     <row r="94">
@@ -2305,19 +2305,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C94" t="n">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D94" t="n">
-        <v>1492</v>
+        <v>1612</v>
       </c>
       <c r="E94" t="n">
-        <v>15.00000000000001</v>
+        <v>34.99999999999998</v>
       </c>
       <c r="F94" t="n">
-        <v>35.00000000000002</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="95">
@@ -2325,19 +2325,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C95" t="n">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D95" t="n">
-        <v>1475</v>
+        <v>1598</v>
       </c>
       <c r="E95" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F95" t="n">
-        <v>34.99999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -2345,19 +2345,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C96" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D96" t="n">
-        <v>1457</v>
+        <v>1566</v>
       </c>
       <c r="E96" t="n">
-        <v>15.00000000000001</v>
+        <v>34.99999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>35.00000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -2365,19 +2365,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C97" t="n">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D97" t="n">
-        <v>1436</v>
+        <v>1547</v>
       </c>
       <c r="E97" t="n">
-        <v>15.00000000000001</v>
+        <v>35</v>
       </c>
       <c r="F97" t="n">
-        <v>35</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="98">
@@ -2385,19 +2385,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C98" t="n">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D98" t="n">
-        <v>1413</v>
+        <v>1534</v>
       </c>
       <c r="E98" t="n">
-        <v>14.99999999999999</v>
+        <v>34.99999999999998</v>
       </c>
       <c r="F98" t="n">
-        <v>34.99999999999998</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="99">
@@ -2405,19 +2405,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C99" t="n">
         <v>289</v>
       </c>
       <c r="D99" t="n">
-        <v>1394</v>
+        <v>1513</v>
       </c>
       <c r="E99" t="n">
-        <v>15.00000000000001</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F99" t="n">
-        <v>35.00000000000002</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -2425,19 +2425,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C100" t="n">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D100" t="n">
-        <v>1374</v>
+        <v>1495</v>
       </c>
       <c r="E100" t="n">
-        <v>35.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F100" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
@@ -2445,13 +2445,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C101" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D101" t="n">
-        <v>1351</v>
+        <v>1474</v>
       </c>
       <c r="E101" t="n">
         <v>14.99999999999999</v>
@@ -2465,19 +2465,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C102" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D102" t="n">
-        <v>1329</v>
+        <v>1459</v>
       </c>
       <c r="E102" t="n">
+        <v>15.00000000000001</v>
+      </c>
+      <c r="F102" t="n">
         <v>35.00000000000002</v>
-      </c>
-      <c r="F102" t="n">
-        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="103">
@@ -2485,19 +2485,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C103" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D103" t="n">
-        <v>1311</v>
+        <v>1440</v>
       </c>
       <c r="E103" t="n">
-        <v>35.00000000000002</v>
+        <v>15</v>
       </c>
       <c r="F103" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
@@ -2505,19 +2505,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C104" t="n">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D104" t="n">
-        <v>1294</v>
+        <v>1420</v>
       </c>
       <c r="E104" t="n">
-        <v>35.00000000000002</v>
+        <v>15</v>
       </c>
       <c r="F104" t="n">
-        <v>15.00000000000001</v>
+        <v>34.99999999999999</v>
       </c>
     </row>
     <row r="105">
@@ -2525,19 +2525,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C105" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D105" t="n">
-        <v>1275</v>
+        <v>1397</v>
       </c>
       <c r="E105" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F105" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
@@ -2548,16 +2548,16 @@
         <v>349</v>
       </c>
       <c r="C106" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D106" t="n">
-        <v>1257</v>
+        <v>1379</v>
       </c>
       <c r="E106" t="n">
-        <v>35.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F106" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
@@ -2565,19 +2565,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C107" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D107" t="n">
-        <v>1237</v>
+        <v>1360</v>
       </c>
       <c r="E107" t="n">
-        <v>15.00000000000001</v>
+        <v>34.99999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>35.00000000000002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
@@ -2585,19 +2585,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C108" t="n">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D108" t="n">
-        <v>1218</v>
+        <v>1341</v>
       </c>
       <c r="E108" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F108" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
@@ -2605,19 +2605,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C109" t="n">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D109" t="n">
-        <v>1196</v>
+        <v>1323</v>
       </c>
       <c r="E109" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F109" t="n">
-        <v>35.00000000000002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
@@ -2625,19 +2625,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C110" t="n">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D110" t="n">
-        <v>1175</v>
+        <v>1306</v>
       </c>
       <c r="E110" t="n">
-        <v>15.00000000000001</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F110" t="n">
-        <v>35.00000000000001</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="111">
@@ -2645,19 +2645,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C111" t="n">
         <v>287</v>
       </c>
       <c r="D111" t="n">
-        <v>1155</v>
+        <v>1291</v>
       </c>
       <c r="E111" t="n">
-        <v>15</v>
+        <v>34.99999999999998</v>
       </c>
       <c r="F111" t="n">
-        <v>34.99999999999999</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="112">
@@ -2665,13 +2665,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C112" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D112" t="n">
-        <v>1136</v>
+        <v>1270</v>
       </c>
       <c r="E112" t="n">
         <v>35.00000000000002</v>
@@ -2685,19 +2685,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C113" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D113" t="n">
-        <v>1114</v>
+        <v>1250</v>
       </c>
       <c r="E113" t="n">
-        <v>35.00000000000001</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>15.00000000000001</v>
+        <v>35.00000000000002</v>
       </c>
     </row>
     <row r="114">
@@ -2705,19 +2705,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C114" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D114" t="n">
-        <v>1094</v>
+        <v>1230</v>
       </c>
       <c r="E114" t="n">
-        <v>34.99999999999999</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>15</v>
+        <v>34.99999999999998</v>
       </c>
     </row>
     <row r="115">
@@ -2725,19 +2725,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C115" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D115" t="n">
-        <v>1075</v>
+        <v>1211</v>
       </c>
       <c r="E115" t="n">
-        <v>34.99999999999998</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>14.99999999999999</v>
+        <v>35.00000000000002</v>
       </c>
     </row>
     <row r="116">
@@ -2745,19 +2745,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C116" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D116" t="n">
-        <v>1060</v>
+        <v>1192</v>
       </c>
       <c r="E116" t="n">
+        <v>15.00000000000001</v>
+      </c>
+      <c r="F116" t="n">
         <v>35.00000000000002</v>
-      </c>
-      <c r="F116" t="n">
-        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -2765,19 +2765,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C117" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D117" t="n">
-        <v>1040</v>
+        <v>1170</v>
       </c>
       <c r="E117" t="n">
-        <v>35.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F117" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
@@ -2785,13 +2785,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C118" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D118" t="n">
-        <v>1021</v>
+        <v>1150</v>
       </c>
       <c r="E118" t="n">
         <v>35.00000000000002</v>
@@ -2805,19 +2805,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C119" t="n">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D119" t="n">
-        <v>1000</v>
+        <v>1129</v>
       </c>
       <c r="E119" t="n">
-        <v>15</v>
+        <v>34.99999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>34.99999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
@@ -2825,19 +2825,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C120" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D120" t="n">
-        <v>980</v>
+        <v>1108</v>
       </c>
       <c r="E120" t="n">
-        <v>15.00000000000001</v>
+        <v>34.99999999999998</v>
       </c>
       <c r="F120" t="n">
-        <v>35</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="121">
@@ -2845,19 +2845,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C121" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D121" t="n">
-        <v>958</v>
+        <v>1092</v>
       </c>
       <c r="E121" t="n">
-        <v>15.00000000000001</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>35.00000000000001</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="122">
@@ -2865,19 +2865,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C122" t="n">
         <v>288</v>
       </c>
       <c r="D122" t="n">
-        <v>938</v>
+        <v>1074</v>
       </c>
       <c r="E122" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F122" t="n">
-        <v>35.00000000000002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
@@ -2885,19 +2885,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C123" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D123" t="n">
-        <v>916</v>
+        <v>1054</v>
       </c>
       <c r="E123" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>15</v>
+        <v>35.00000000000002</v>
       </c>
     </row>
     <row r="124">
@@ -2905,19 +2905,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C124" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D124" t="n">
-        <v>894</v>
+        <v>1036</v>
       </c>
       <c r="E124" t="n">
-        <v>35.00000000000002</v>
+        <v>15</v>
       </c>
       <c r="F124" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
@@ -2925,16 +2925,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C125" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D125" t="n">
-        <v>873</v>
+        <v>1016</v>
       </c>
       <c r="E125" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F125" t="n">
         <v>15</v>
@@ -2945,19 +2945,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C126" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D126" t="n">
-        <v>856</v>
+        <v>998</v>
       </c>
       <c r="E126" t="n">
-        <v>34.99999999999998</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F126" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="127">
@@ -2965,19 +2965,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C127" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D127" t="n">
-        <v>841</v>
+        <v>979</v>
       </c>
       <c r="E127" t="n">
-        <v>35</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F127" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="128">
@@ -2985,19 +2985,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C128" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D128" t="n">
-        <v>817</v>
+        <v>958</v>
       </c>
       <c r="E128" t="n">
-        <v>35.00000000000002</v>
+        <v>15</v>
       </c>
       <c r="F128" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
@@ -3005,16 +3005,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C129" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D129" t="n">
-        <v>799</v>
+        <v>942</v>
       </c>
       <c r="E129" t="n">
-        <v>35.00000000000002</v>
+        <v>35.00000000000001</v>
       </c>
       <c r="F129" t="n">
         <v>15.00000000000001</v>
@@ -3025,19 +3025,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C130" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D130" t="n">
-        <v>779</v>
+        <v>920</v>
       </c>
       <c r="E130" t="n">
-        <v>34.99999999999998</v>
+        <v>15</v>
       </c>
       <c r="F130" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131">
@@ -3045,13 +3045,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C131" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D131" t="n">
-        <v>764</v>
+        <v>906</v>
       </c>
       <c r="E131" t="n">
         <v>15</v>
@@ -3065,19 +3065,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C132" t="n">
         <v>282</v>
       </c>
       <c r="D132" t="n">
-        <v>744</v>
+        <v>888</v>
       </c>
       <c r="E132" t="n">
         <v>15.00000000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>35</v>
+        <v>35.00000000000002</v>
       </c>
     </row>
     <row r="133">
@@ -3085,19 +3085,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C133" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D133" t="n">
-        <v>728</v>
+        <v>869</v>
       </c>
       <c r="E133" t="n">
-        <v>15.00000000000001</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>35.00000000000002</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="134">
@@ -3105,19 +3105,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C134" t="n">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D134" t="n">
-        <v>709</v>
+        <v>849</v>
       </c>
       <c r="E134" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F134" t="n">
-        <v>35.00000000000002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
@@ -3128,16 +3128,16 @@
         <v>345</v>
       </c>
       <c r="C135" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D135" t="n">
-        <v>689</v>
+        <v>830</v>
       </c>
       <c r="E135" t="n">
-        <v>15</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F135" t="n">
-        <v>34.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="136">
@@ -3145,19 +3145,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C136" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D136" t="n">
-        <v>670</v>
+        <v>813</v>
       </c>
       <c r="E136" t="n">
-        <v>35.00000000000001</v>
+        <v>34.99999999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137">
@@ -3165,19 +3165,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C137" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D137" t="n">
-        <v>651</v>
+        <v>795</v>
       </c>
       <c r="E137" t="n">
-        <v>34.99999999999998</v>
+        <v>34.99999999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138">
@@ -3185,19 +3185,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C138" t="n">
         <v>283</v>
       </c>
       <c r="D138" t="n">
-        <v>633</v>
+        <v>775</v>
       </c>
       <c r="E138" t="n">
-        <v>34.99999999999998</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F138" t="n">
-        <v>14.99999999999999</v>
+        <v>35.00000000000002</v>
       </c>
     </row>
     <row r="139">
@@ -3205,16 +3205,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C139" t="n">
         <v>281</v>
       </c>
       <c r="D139" t="n">
-        <v>613</v>
+        <v>755</v>
       </c>
       <c r="E139" t="n">
-        <v>34.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F139" t="n">
         <v>15</v>
@@ -3228,16 +3228,16 @@
         <v>342</v>
       </c>
       <c r="C140" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D140" t="n">
-        <v>594</v>
+        <v>736</v>
       </c>
       <c r="E140" t="n">
-        <v>34.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>15</v>
+        <v>35.00000000000002</v>
       </c>
     </row>
     <row r="141">
@@ -3245,19 +3245,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C141" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D141" t="n">
-        <v>576</v>
+        <v>720</v>
       </c>
       <c r="E141" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F141" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142">
@@ -3265,19 +3265,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C142" t="n">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D142" t="n">
-        <v>558</v>
+        <v>697</v>
       </c>
       <c r="E142" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F142" t="n">
-        <v>34.99999999999998</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143">
@@ -3285,19 +3285,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C143" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D143" t="n">
-        <v>538</v>
+        <v>681</v>
       </c>
       <c r="E143" t="n">
-        <v>15</v>
+        <v>35.00000000000001</v>
       </c>
       <c r="F143" t="n">
-        <v>34.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="144">
@@ -3305,19 +3305,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C144" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D144" t="n">
-        <v>518</v>
+        <v>665</v>
       </c>
       <c r="E144" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F144" t="n">
-        <v>34.99999999999999</v>
+        <v>35.00000000000001</v>
       </c>
     </row>
     <row r="145">
@@ -3325,19 +3325,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C145" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D145" t="n">
-        <v>499</v>
+        <v>646</v>
       </c>
       <c r="E145" t="n">
-        <v>15.00000000000001</v>
+        <v>35.00000000000001</v>
       </c>
       <c r="F145" t="n">
-        <v>35.00000000000001</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="146">
@@ -3345,19 +3345,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C146" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D146" t="n">
-        <v>479</v>
+        <v>625</v>
       </c>
       <c r="E146" t="n">
-        <v>15</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F146" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="147">
@@ -3365,16 +3365,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C147" t="n">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D147" t="n">
-        <v>459</v>
+        <v>610</v>
       </c>
       <c r="E147" t="n">
-        <v>35</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F147" t="n">
         <v>15.00000000000001</v>
@@ -3385,16 +3385,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C148" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D148" t="n">
-        <v>443</v>
+        <v>591</v>
       </c>
       <c r="E148" t="n">
-        <v>34.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F148" t="n">
         <v>15</v>
@@ -3405,19 +3405,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C149" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D149" t="n">
-        <v>420</v>
+        <v>571</v>
       </c>
       <c r="E149" t="n">
-        <v>34.99999999999999</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F149" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="150">
@@ -3425,19 +3425,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C150" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D150" t="n">
-        <v>406</v>
+        <v>553</v>
       </c>
       <c r="E150" t="n">
-        <v>35</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>15</v>
+        <v>35.00000000000001</v>
       </c>
     </row>
     <row r="151">
@@ -3445,19 +3445,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C151" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D151" t="n">
-        <v>385</v>
+        <v>538</v>
       </c>
       <c r="E151" t="n">
+        <v>15.00000000000001</v>
+      </c>
+      <c r="F151" t="n">
         <v>35.00000000000002</v>
-      </c>
-      <c r="F151" t="n">
-        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="152">
@@ -3465,19 +3465,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C152" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D152" t="n">
-        <v>367</v>
+        <v>518</v>
       </c>
       <c r="E152" t="n">
-        <v>9.441176470588236</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F152" t="n">
-        <v>9.441176470588236</v>
+        <v>35.00000000000002</v>
       </c>
     </row>
     <row r="153">
@@ -3485,19 +3485,179 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C153" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D153" t="n">
-        <v>347</v>
+        <v>495</v>
       </c>
       <c r="E153" t="n">
-        <v>5.167269896867095</v>
+        <v>34.99999999999999</v>
       </c>
       <c r="F153" t="n">
-        <v>5.167269896867095</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>346</v>
+      </c>
+      <c r="C154" t="n">
+        <v>278</v>
+      </c>
+      <c r="D154" t="n">
+        <v>478</v>
+      </c>
+      <c r="E154" t="n">
+        <v>35.00000000000002</v>
+      </c>
+      <c r="F154" t="n">
+        <v>15.00000000000001</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>344</v>
+      </c>
+      <c r="C155" t="n">
+        <v>279</v>
+      </c>
+      <c r="D155" t="n">
+        <v>462</v>
+      </c>
+      <c r="E155" t="n">
+        <v>35</v>
+      </c>
+      <c r="F155" t="n">
+        <v>15.00000000000001</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>342</v>
+      </c>
+      <c r="C156" t="n">
+        <v>279</v>
+      </c>
+      <c r="D156" t="n">
+        <v>440</v>
+      </c>
+      <c r="E156" t="n">
+        <v>35.00000000000002</v>
+      </c>
+      <c r="F156" t="n">
+        <v>15.00000000000001</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>340</v>
+      </c>
+      <c r="C157" t="n">
+        <v>279</v>
+      </c>
+      <c r="D157" t="n">
+        <v>422</v>
+      </c>
+      <c r="E157" t="n">
+        <v>35.00000000000002</v>
+      </c>
+      <c r="F157" t="n">
+        <v>15.00000000000001</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>337</v>
+      </c>
+      <c r="C158" t="n">
+        <v>282</v>
+      </c>
+      <c r="D158" t="n">
+        <v>408</v>
+      </c>
+      <c r="E158" t="n">
+        <v>15</v>
+      </c>
+      <c r="F158" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>337</v>
+      </c>
+      <c r="C159" t="n">
+        <v>284</v>
+      </c>
+      <c r="D159" t="n">
+        <v>385</v>
+      </c>
+      <c r="E159" t="n">
+        <v>15.00000000000001</v>
+      </c>
+      <c r="F159" t="n">
+        <v>35.00000000000002</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>333</v>
+      </c>
+      <c r="C160" t="n">
+        <v>282</v>
+      </c>
+      <c r="D160" t="n">
+        <v>364</v>
+      </c>
+      <c r="E160" t="n">
+        <v>7.71757925072046</v>
+      </c>
+      <c r="F160" t="n">
+        <v>17.89742818468942</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>337</v>
+      </c>
+      <c r="C161" t="n">
+        <v>284</v>
+      </c>
+      <c r="D161" t="n">
+        <v>344</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4.301745539177654</v>
+      </c>
+      <c r="F161" t="n">
+        <v>11.09187749667109</v>
       </c>
     </row>
   </sheetData>
